--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Itga8.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Itga8.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H2">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I2">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J2">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.559894782872871</v>
+        <v>1.253707</v>
       </c>
       <c r="N2">
-        <v>0.559894782872871</v>
+        <v>3.761121</v>
       </c>
       <c r="O2">
-        <v>0.03711339214353097</v>
+        <v>0.07760709912293902</v>
       </c>
       <c r="P2">
-        <v>0.03711339214353097</v>
+        <v>0.1037097015912075</v>
       </c>
       <c r="Q2">
-        <v>9.460678110817714</v>
+        <v>30.99387741440899</v>
       </c>
       <c r="R2">
-        <v>9.460678110817714</v>
+        <v>278.9448967296809</v>
       </c>
       <c r="S2">
-        <v>0.0003990900642216894</v>
+        <v>0.001040592771121669</v>
       </c>
       <c r="T2">
-        <v>0.0003990900642216894</v>
+        <v>0.001395754767830128</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H3">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I3">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J3">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.02981613596453</v>
+        <v>1.168375666666667</v>
       </c>
       <c r="N3">
-        <v>1.02981613596453</v>
+        <v>3.505127</v>
       </c>
       <c r="O3">
-        <v>0.06826277232603824</v>
+        <v>0.07232491018701337</v>
       </c>
       <c r="P3">
-        <v>0.06826277232603824</v>
+        <v>0.09665088552303537</v>
       </c>
       <c r="Q3">
-        <v>17.40105332951224</v>
+        <v>28.88433436731633</v>
       </c>
       <c r="R3">
-        <v>17.40105332951224</v>
+        <v>259.959009305847</v>
       </c>
       <c r="S3">
-        <v>0.0007340475396641356</v>
+        <v>0.0009697666780896926</v>
       </c>
       <c r="T3">
-        <v>0.0007340475396641356</v>
+        <v>0.001300755206253697</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H4">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I4">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J4">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.549410622398558</v>
+        <v>0.6422343333333334</v>
       </c>
       <c r="N4">
-        <v>0.549410622398558</v>
+        <v>1.926703</v>
       </c>
       <c r="O4">
-        <v>0.03641843521433373</v>
+        <v>0.03975565548182683</v>
       </c>
       <c r="P4">
-        <v>0.03641843521433373</v>
+        <v>0.05312719085211144</v>
       </c>
       <c r="Q4">
-        <v>9.283524705314104</v>
+        <v>15.87718039275366</v>
       </c>
       <c r="R4">
-        <v>9.283524705314104</v>
+        <v>142.894623534783</v>
       </c>
       <c r="S4">
-        <v>0.0003916170096317986</v>
+        <v>0.0005330626730430724</v>
       </c>
       <c r="T4">
-        <v>0.0003916170096317986</v>
+        <v>0.0007150008995835579</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H5">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I5">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J5">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8322439677197691</v>
+        <v>0.8924576666666667</v>
       </c>
       <c r="N5">
-        <v>0.8322439677197691</v>
+        <v>2.677373</v>
       </c>
       <c r="O5">
-        <v>0.05516643069004122</v>
+        <v>0.05524500589055249</v>
       </c>
       <c r="P5">
-        <v>0.05516643069004122</v>
+        <v>0.07382627543180768</v>
       </c>
       <c r="Q5">
-        <v>14.06262842433785</v>
+        <v>22.06314834185033</v>
       </c>
       <c r="R5">
-        <v>14.06262842433785</v>
+        <v>198.568335076653</v>
       </c>
       <c r="S5">
-        <v>0.0005932191345330175</v>
+        <v>0.0007407512253384927</v>
       </c>
       <c r="T5">
-        <v>0.0005932191345330175</v>
+        <v>0.0009935750883871199</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H6">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I6">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J6">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.1146923945513</v>
+        <v>12.1977655</v>
       </c>
       <c r="N6">
-        <v>12.1146923945513</v>
+        <v>24.395531</v>
       </c>
       <c r="O6">
-        <v>0.8030389696260558</v>
+        <v>0.7550673293176682</v>
       </c>
       <c r="P6">
-        <v>0.8030389696260558</v>
+        <v>0.6726859466018379</v>
       </c>
       <c r="Q6">
-        <v>204.7048993175656</v>
+        <v>301.5505605669484</v>
       </c>
       <c r="R6">
-        <v>204.7048993175656</v>
+        <v>1809.303363401691</v>
       </c>
       <c r="S6">
-        <v>0.008635289189442737</v>
+        <v>0.01012430065648297</v>
       </c>
       <c r="T6">
-        <v>0.008635289189442737</v>
+        <v>0.009053199486801323</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H7">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J7">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.559894782872871</v>
+        <v>1.253707</v>
       </c>
       <c r="N7">
-        <v>0.559894782872871</v>
+        <v>3.761121</v>
       </c>
       <c r="O7">
-        <v>0.03711339214353097</v>
+        <v>0.07760709912293902</v>
       </c>
       <c r="P7">
-        <v>0.03711339214353097</v>
+        <v>0.1037097015912075</v>
       </c>
       <c r="Q7">
-        <v>750.1033889219531</v>
+        <v>1828.257079697199</v>
       </c>
       <c r="R7">
-        <v>750.1033889219531</v>
+        <v>16454.3137172748</v>
       </c>
       <c r="S7">
-        <v>0.03164242627761222</v>
+        <v>0.06138215865822789</v>
       </c>
       <c r="T7">
-        <v>0.03164242627761222</v>
+        <v>0.08233234266520734</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H8">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I8">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J8">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.02981613596453</v>
+        <v>1.168375666666667</v>
       </c>
       <c r="N8">
-        <v>1.02981613596453</v>
+        <v>3.505127</v>
       </c>
       <c r="O8">
-        <v>0.06826277232603824</v>
+        <v>0.07232491018701337</v>
       </c>
       <c r="P8">
-        <v>0.06826277232603824</v>
+        <v>0.09665088552303537</v>
       </c>
       <c r="Q8">
-        <v>1379.667389629705</v>
+        <v>1703.820018815615</v>
       </c>
       <c r="R8">
-        <v>1379.667389629705</v>
+        <v>15334.38016934054</v>
       </c>
       <c r="S8">
-        <v>0.0582000085704532</v>
+        <v>0.05720429138845529</v>
       </c>
       <c r="T8">
-        <v>0.0582000085704532</v>
+        <v>0.0767285384461362</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H9">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I9">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J9">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.549410622398558</v>
+        <v>0.6422343333333334</v>
       </c>
       <c r="N9">
-        <v>0.549410622398558</v>
+        <v>1.926703</v>
       </c>
       <c r="O9">
-        <v>0.03641843521433373</v>
+        <v>0.03975565548182683</v>
       </c>
       <c r="P9">
-        <v>0.03641843521433373</v>
+        <v>0.05312719085211144</v>
       </c>
       <c r="Q9">
-        <v>736.0575279095824</v>
+        <v>936.5581166423078</v>
       </c>
       <c r="R9">
-        <v>736.0575279095824</v>
+        <v>8429.023049780772</v>
       </c>
       <c r="S9">
-        <v>0.0310499144610368</v>
+        <v>0.03144413307449658</v>
       </c>
       <c r="T9">
-        <v>0.0310499144610368</v>
+        <v>0.04217624788197003</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H10">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I10">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J10">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8322439677197691</v>
+        <v>0.8924576666666667</v>
       </c>
       <c r="N10">
-        <v>0.8322439677197691</v>
+        <v>2.677373</v>
       </c>
       <c r="O10">
-        <v>0.05516643069004122</v>
+        <v>0.05524500589055249</v>
       </c>
       <c r="P10">
-        <v>0.05516643069004122</v>
+        <v>0.07382627543180768</v>
       </c>
       <c r="Q10">
-        <v>1114.975598438818</v>
+        <v>1301.45404581244</v>
       </c>
       <c r="R10">
-        <v>1114.975598438818</v>
+        <v>11713.08641231196</v>
       </c>
       <c r="S10">
-        <v>0.04703422714253026</v>
+        <v>0.04369519998778439</v>
       </c>
       <c r="T10">
-        <v>0.04703422714253026</v>
+        <v>0.05860869439684982</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H11">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I11">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J11">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.1146923945513</v>
+        <v>12.1977655</v>
       </c>
       <c r="N11">
-        <v>12.1146923945513</v>
+        <v>24.395531</v>
       </c>
       <c r="O11">
-        <v>0.8030389696260558</v>
+        <v>0.7550673293176682</v>
       </c>
       <c r="P11">
-        <v>0.8030389696260558</v>
+        <v>0.6726859466018379</v>
       </c>
       <c r="Q11">
-        <v>16230.32058679369</v>
+        <v>17787.76949627086</v>
       </c>
       <c r="R11">
-        <v>16230.32058679369</v>
+        <v>106726.6169776252</v>
       </c>
       <c r="S11">
-        <v>0.6846612483216855</v>
+        <v>0.5972090585733815</v>
       </c>
       <c r="T11">
-        <v>0.6846612483216855</v>
+        <v>0.534027280109225</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H12">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I12">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J12">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.559894782872871</v>
+        <v>1.253707</v>
       </c>
       <c r="N12">
-        <v>0.559894782872871</v>
+        <v>3.761121</v>
       </c>
       <c r="O12">
-        <v>0.03711339214353097</v>
+        <v>0.07760709912293902</v>
       </c>
       <c r="P12">
-        <v>0.03711339214353097</v>
+        <v>0.1037097015912075</v>
       </c>
       <c r="Q12">
-        <v>30.70987574958796</v>
+        <v>75.34752742153</v>
       </c>
       <c r="R12">
-        <v>30.70987574958796</v>
+        <v>678.12774679377</v>
       </c>
       <c r="S12">
-        <v>0.00129546805647358</v>
+        <v>0.002529728414047511</v>
       </c>
       <c r="T12">
-        <v>0.00129546805647358</v>
+        <v>0.003393143401732628</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H13">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I13">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J13">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.02981613596453</v>
+        <v>1.168375666666667</v>
       </c>
       <c r="N13">
-        <v>1.02981613596453</v>
+        <v>3.505127</v>
       </c>
       <c r="O13">
-        <v>0.06826277232603824</v>
+        <v>0.07232491018701337</v>
       </c>
       <c r="P13">
-        <v>0.06826277232603824</v>
+        <v>0.09665088552303537</v>
       </c>
       <c r="Q13">
-        <v>56.48476561635036</v>
+        <v>70.21913220777668</v>
       </c>
       <c r="R13">
-        <v>56.48476561635036</v>
+        <v>631.97218986999</v>
       </c>
       <c r="S13">
-        <v>0.002382758241356964</v>
+        <v>0.002357546956544369</v>
       </c>
       <c r="T13">
-        <v>0.002382758241356964</v>
+        <v>0.003162195141364737</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H14">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I14">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J14">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.549410622398558</v>
+        <v>0.6422343333333334</v>
       </c>
       <c r="N14">
-        <v>0.549410622398558</v>
+        <v>1.926703</v>
       </c>
       <c r="O14">
-        <v>0.03641843521433373</v>
+        <v>0.03975565548182683</v>
       </c>
       <c r="P14">
-        <v>0.03641843521433373</v>
+        <v>0.05312719085211144</v>
       </c>
       <c r="Q14">
-        <v>30.13482615928306</v>
+        <v>38.59814856412333</v>
       </c>
       <c r="R14">
-        <v>30.13482615928306</v>
+        <v>347.38333707711</v>
       </c>
       <c r="S14">
-        <v>0.001271210114787241</v>
+        <v>0.001295899633255772</v>
       </c>
       <c r="T14">
-        <v>0.001271210114787241</v>
+        <v>0.0017381997472425</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H15">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I15">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J15">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.8322439677197691</v>
+        <v>0.8924576666666667</v>
       </c>
       <c r="N15">
-        <v>0.8322439677197691</v>
+        <v>2.677373</v>
       </c>
       <c r="O15">
-        <v>0.05516643069004122</v>
+        <v>0.05524500589055249</v>
       </c>
       <c r="P15">
-        <v>0.05516643069004122</v>
+        <v>0.07382627543180768</v>
       </c>
       <c r="Q15">
-        <v>45.64805678466447</v>
+        <v>53.63651835055668</v>
       </c>
       <c r="R15">
-        <v>45.64805678466447</v>
+        <v>482.72866515501</v>
       </c>
       <c r="S15">
-        <v>0.001925621578114601</v>
+        <v>0.001800799961794271</v>
       </c>
       <c r="T15">
-        <v>0.001925621578114601</v>
+        <v>0.002415426286186244</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H16">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I16">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J16">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.1146923945513</v>
+        <v>12.1977655</v>
       </c>
       <c r="N16">
-        <v>12.1146923945513</v>
+        <v>24.395531</v>
       </c>
       <c r="O16">
-        <v>0.8030389696260558</v>
+        <v>0.7550673293176682</v>
       </c>
       <c r="P16">
-        <v>0.8030389696260558</v>
+        <v>0.6726859466018379</v>
       </c>
       <c r="Q16">
-        <v>664.4832378543947</v>
+        <v>733.083145019245</v>
       </c>
       <c r="R16">
-        <v>664.4832378543947</v>
+        <v>4398.49887011547</v>
       </c>
       <c r="S16">
-        <v>0.02803061841479622</v>
+        <v>0.02461263594543099</v>
       </c>
       <c r="T16">
-        <v>0.02803061841479622</v>
+        <v>0.02200874022516525</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H17">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I17">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J17">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.559894782872871</v>
+        <v>1.253707</v>
       </c>
       <c r="N17">
-        <v>0.559894782872871</v>
+        <v>3.761121</v>
       </c>
       <c r="O17">
-        <v>0.03711339214353097</v>
+        <v>0.07760709912293902</v>
       </c>
       <c r="P17">
-        <v>0.03711339214353097</v>
+        <v>0.1037097015912075</v>
       </c>
       <c r="Q17">
-        <v>78.06092564327203</v>
+        <v>351.249724903077</v>
       </c>
       <c r="R17">
-        <v>78.06092564327203</v>
+        <v>3161.247524127693</v>
       </c>
       <c r="S17">
-        <v>0.003292928843288305</v>
+        <v>0.0117929073444258</v>
       </c>
       <c r="T17">
-        <v>0.003292928843288305</v>
+        <v>0.01581791370203233</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H18">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I18">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J18">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.02981613596453</v>
+        <v>1.168375666666667</v>
       </c>
       <c r="N18">
-        <v>1.02981613596453</v>
+        <v>3.505127</v>
       </c>
       <c r="O18">
-        <v>0.06826277232603824</v>
+        <v>0.07232491018701337</v>
       </c>
       <c r="P18">
-        <v>0.06826277232603824</v>
+        <v>0.09665088552303537</v>
       </c>
       <c r="Q18">
-        <v>143.5776922286875</v>
+        <v>327.3425381688991</v>
       </c>
       <c r="R18">
-        <v>143.5776922286875</v>
+        <v>2946.082843520091</v>
       </c>
       <c r="S18">
-        <v>0.006056693795218473</v>
+        <v>0.01099024411643369</v>
       </c>
       <c r="T18">
-        <v>0.006056693795218473</v>
+        <v>0.01474129558731652</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H19">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I19">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J19">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.549410622398558</v>
+        <v>0.6422343333333334</v>
       </c>
       <c r="N19">
-        <v>0.549410622398558</v>
+        <v>1.926703</v>
       </c>
       <c r="O19">
-        <v>0.03641843521433373</v>
+        <v>0.03975565548182683</v>
       </c>
       <c r="P19">
-        <v>0.03641843521433373</v>
+        <v>0.05312719085211144</v>
       </c>
       <c r="Q19">
-        <v>76.59921659319271</v>
+        <v>179.934093776811</v>
       </c>
       <c r="R19">
-        <v>76.59921659319271</v>
+        <v>1619.406843991299</v>
       </c>
       <c r="S19">
-        <v>0.003231267982212971</v>
+        <v>0.006041132406861474</v>
       </c>
       <c r="T19">
-        <v>0.003231267982212971</v>
+        <v>0.008103015506134155</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H20">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I20">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J20">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.8322439677197691</v>
+        <v>0.8924576666666667</v>
       </c>
       <c r="N20">
-        <v>0.8322439677197691</v>
+        <v>2.677373</v>
       </c>
       <c r="O20">
-        <v>0.05516643069004122</v>
+        <v>0.05524500589055249</v>
       </c>
       <c r="P20">
-        <v>0.05516643069004122</v>
+        <v>0.07382627543180768</v>
       </c>
       <c r="Q20">
-        <v>116.0320411415329</v>
+        <v>250.038892583601</v>
       </c>
       <c r="R20">
-        <v>116.0320411415329</v>
+        <v>2250.35003325241</v>
       </c>
       <c r="S20">
-        <v>0.004894705665759682</v>
+        <v>0.008394840717825178</v>
       </c>
       <c r="T20">
-        <v>0.004894705665759682</v>
+        <v>0.0112600618438363</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H21">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I21">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J21">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>12.1146923945513</v>
+        <v>12.1977655</v>
       </c>
       <c r="N21">
-        <v>12.1146923945513</v>
+        <v>24.395531</v>
       </c>
       <c r="O21">
-        <v>0.8030389696260558</v>
+        <v>0.7550673293176682</v>
       </c>
       <c r="P21">
-        <v>0.8030389696260558</v>
+        <v>0.6726859466018379</v>
       </c>
       <c r="Q21">
-        <v>1689.038960766505</v>
+        <v>3417.434676768371</v>
       </c>
       <c r="R21">
-        <v>1689.038960766505</v>
+        <v>20504.60806061022</v>
       </c>
       <c r="S21">
-        <v>0.07125056570252317</v>
+        <v>0.1147374293599172</v>
       </c>
       <c r="T21">
-        <v>0.07125056570252317</v>
+        <v>0.1025987741615477</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H22">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I22">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J22">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.559894782872871</v>
+        <v>1.253707</v>
       </c>
       <c r="N22">
-        <v>0.559894782872871</v>
+        <v>3.761121</v>
       </c>
       <c r="O22">
-        <v>0.03711339214353097</v>
+        <v>0.07760709912293902</v>
       </c>
       <c r="P22">
-        <v>0.03711339214353097</v>
+        <v>0.1037097015912075</v>
       </c>
       <c r="Q22">
-        <v>11.46116797846276</v>
+        <v>25.665942359694</v>
       </c>
       <c r="R22">
-        <v>11.46116797846276</v>
+        <v>153.995654158164</v>
       </c>
       <c r="S22">
-        <v>0.0004834789019351726</v>
+        <v>0.0008617119351161468</v>
       </c>
       <c r="T22">
-        <v>0.0004834789019351726</v>
+        <v>0.0007705470544050511</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H23">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I23">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J23">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.02981613596453</v>
+        <v>1.168375666666667</v>
       </c>
       <c r="N23">
-        <v>1.02981613596453</v>
+        <v>3.505127</v>
       </c>
       <c r="O23">
-        <v>0.06826277232603824</v>
+        <v>0.07232491018701337</v>
       </c>
       <c r="P23">
-        <v>0.06826277232603824</v>
+        <v>0.09665088552303537</v>
       </c>
       <c r="Q23">
-        <v>21.08056028073558</v>
+        <v>23.919035719778</v>
       </c>
       <c r="R23">
-        <v>21.08056028073558</v>
+        <v>143.514214318668</v>
       </c>
       <c r="S23">
-        <v>0.0008892641793454694</v>
+        <v>0.0008030610474903239</v>
       </c>
       <c r="T23">
-        <v>0.0008892641793454694</v>
+        <v>0.0007181011419642213</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H24">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I24">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J24">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.549410622398558</v>
+        <v>0.6422343333333334</v>
       </c>
       <c r="N24">
-        <v>0.549410622398558</v>
+        <v>1.926703</v>
       </c>
       <c r="O24">
-        <v>0.03641843521433373</v>
+        <v>0.03975565548182683</v>
       </c>
       <c r="P24">
-        <v>0.03641843521433373</v>
+        <v>0.05312719085211144</v>
       </c>
       <c r="Q24">
-        <v>11.24655493332469</v>
+        <v>13.147848245842</v>
       </c>
       <c r="R24">
-        <v>11.24655493332469</v>
+        <v>78.88708947505201</v>
       </c>
       <c r="S24">
-        <v>0.0004744256466649161</v>
+        <v>0.0004414276941699258</v>
       </c>
       <c r="T24">
-        <v>0.0004744256466649161</v>
+        <v>0.0003947268171812009</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H25">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I25">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J25">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.8322439677197691</v>
+        <v>0.8924576666666667</v>
       </c>
       <c r="N25">
-        <v>0.8322439677197691</v>
+        <v>2.677373</v>
       </c>
       <c r="O25">
-        <v>0.05516643069004122</v>
+        <v>0.05524500589055249</v>
       </c>
       <c r="P25">
-        <v>0.05516643069004122</v>
+        <v>0.07382627543180768</v>
       </c>
       <c r="Q25">
-        <v>17.03621502625147</v>
+        <v>18.270430835222</v>
       </c>
       <c r="R25">
-        <v>17.03621502625147</v>
+        <v>109.622585011332</v>
       </c>
       <c r="S25">
-        <v>0.0007186571691036589</v>
+        <v>0.0006134139978101539</v>
       </c>
       <c r="T25">
-        <v>0.0007186571691036589</v>
+        <v>0.0005485178165482086</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H26">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I26">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J26">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>12.1146923945513</v>
+        <v>12.1977655</v>
       </c>
       <c r="N26">
-        <v>12.1146923945513</v>
+        <v>24.395531</v>
       </c>
       <c r="O26">
-        <v>0.8030389696260558</v>
+        <v>0.7550673293176682</v>
       </c>
       <c r="P26">
-        <v>0.8030389696260558</v>
+        <v>0.6726859466018379</v>
       </c>
       <c r="Q26">
-        <v>247.9903881742088</v>
+        <v>249.713167622151</v>
       </c>
       <c r="R26">
-        <v>247.9903881742088</v>
+        <v>998.8526704886041</v>
       </c>
       <c r="S26">
-        <v>0.01046124799760811</v>
+        <v>0.008383904782455529</v>
       </c>
       <c r="T26">
-        <v>0.01046124799760811</v>
+        <v>0.004997952619098697</v>
       </c>
     </row>
   </sheetData>
